--- a/user-data/pda-to-pneumonia/pda-to-pneumonia.xlsx
+++ b/user-data/pda-to-pneumonia/pda-to-pneumonia.xlsx
@@ -199,7 +199,7 @@
     <t xml:space="preserve">Units of measure: constant 2015 US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 58</t>
+    <t xml:space="preserve">Source: 57</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 13</t>
